--- a/vnclass/assets/files/Lop_template.xlsx
+++ b/vnclass/assets/files/Lop_template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRONG NHAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11D0BD-0552-47EA-84B6-EAF8052EDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A516A206-DC67-4DB2-8E94-745EB4B5B109}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,10 +47,6 @@
     <t/>
   </si>
   <si>
-    <t>DANH SÁCH TẠO TÀI KHOẢN HỌC SINH - PHHS
-LỚP: 10A6, GVCN: Trần Thị Xuân Mai</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -101,17 +96,21 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>DANH SÁCH PHÂN CÔNG LỚP CHỦ NHIỆM
+NK: 2024-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +135,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -224,63 +223,63 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FDBFE31C-0BB9-4046-9BDB-9ED6F22B4B61}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{556C0389-910C-4281-8ED3-38EFF3027823}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,439 +590,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B38B5-4B1A-44DC-AC8D-BD817021FEC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="4.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="4.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
